--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnai2-Tbxa2r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H2">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I2">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J2">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8603190000000001</v>
+        <v>2.590303333333333</v>
       </c>
       <c r="N2">
-        <v>2.580957</v>
+        <v>7.770910000000001</v>
       </c>
       <c r="O2">
-        <v>0.2585020911374772</v>
+        <v>0.4994568961971165</v>
       </c>
       <c r="P2">
-        <v>0.2585020911374772</v>
+        <v>0.4994568961971165</v>
       </c>
       <c r="Q2">
-        <v>129.078331675716</v>
+        <v>440.1330927126234</v>
       </c>
       <c r="R2">
-        <v>1161.704985081444</v>
+        <v>3961.197834413611</v>
       </c>
       <c r="S2">
-        <v>0.107343183730492</v>
+        <v>0.221818044144152</v>
       </c>
       <c r="T2">
-        <v>0.1073431837304921</v>
+        <v>0.2218180441441521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H3">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I3">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J3">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.092641</v>
       </c>
       <c r="O3">
-        <v>0.6102234322578526</v>
+        <v>0.3915901179531479</v>
       </c>
       <c r="P3">
-        <v>0.6102234322578526</v>
+        <v>0.3915901179531478</v>
       </c>
       <c r="Q3">
-        <v>304.7040054441302</v>
+        <v>345.0783661267124</v>
       </c>
       <c r="R3">
-        <v>2742.336048997172</v>
+        <v>3105.705295140411</v>
       </c>
       <c r="S3">
-        <v>0.2533957296719507</v>
+        <v>0.173912413126966</v>
       </c>
       <c r="T3">
-        <v>0.2533957296719507</v>
+        <v>0.1739124131269659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H4">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I4">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J4">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3620046666666667</v>
+        <v>0.5084619999999999</v>
       </c>
       <c r="N4">
-        <v>1.086014</v>
+        <v>1.525386</v>
       </c>
       <c r="O4">
-        <v>0.1087724010917563</v>
+        <v>0.09804058431541925</v>
       </c>
       <c r="P4">
-        <v>0.1087724010917563</v>
+        <v>0.09804058431541923</v>
       </c>
       <c r="Q4">
-        <v>54.31352606667645</v>
+        <v>86.39565478953398</v>
       </c>
       <c r="R4">
-        <v>488.821734600088</v>
+        <v>777.5608931058059</v>
       </c>
       <c r="S4">
-        <v>0.04516781966374744</v>
+        <v>0.04354163657600866</v>
       </c>
       <c r="T4">
-        <v>0.04516781966374743</v>
+        <v>0.04354163657600866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>150.0354306666667</v>
+        <v>169.915657</v>
       </c>
       <c r="H5">
-        <v>450.1062919999999</v>
+        <v>509.746971</v>
       </c>
       <c r="I5">
-        <v>0.4152507364956075</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="J5">
-        <v>0.4152507364956074</v>
+        <v>0.4441184931734509</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.074889</v>
+        <v>0.05659433333333333</v>
       </c>
       <c r="N5">
-        <v>0.224667</v>
+        <v>0.169783</v>
       </c>
       <c r="O5">
-        <v>0.02250207551291385</v>
+        <v>0.01091240153431645</v>
       </c>
       <c r="P5">
-        <v>0.02250207551291385</v>
+        <v>0.01091240153431645</v>
       </c>
       <c r="Q5">
-        <v>11.236003367196</v>
+        <v>9.616263330810334</v>
       </c>
       <c r="R5">
-        <v>101.124030304764</v>
+        <v>86.546369977293</v>
       </c>
       <c r="S5">
-        <v>0.009344003429417248</v>
+        <v>0.004846399326324274</v>
       </c>
       <c r="T5">
-        <v>0.009344003429417248</v>
+        <v>0.004846399326324274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J6">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8603190000000001</v>
+        <v>2.590303333333333</v>
       </c>
       <c r="N6">
-        <v>2.580957</v>
+        <v>7.770910000000001</v>
       </c>
       <c r="O6">
-        <v>0.2585020911374772</v>
+        <v>0.4994568961971165</v>
       </c>
       <c r="P6">
-        <v>0.2585020911374772</v>
+        <v>0.4994568961971165</v>
       </c>
       <c r="Q6">
-        <v>58.83054291551701</v>
+        <v>177.13075198371</v>
       </c>
       <c r="R6">
-        <v>529.4748862396531</v>
+        <v>1594.17676785339</v>
       </c>
       <c r="S6">
-        <v>0.04892422837483121</v>
+        <v>0.08927026304850844</v>
       </c>
       <c r="T6">
-        <v>0.04892422837483121</v>
+        <v>0.08927026304850842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J7">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.092641</v>
       </c>
       <c r="O7">
-        <v>0.6102234322578526</v>
+        <v>0.3915901179531479</v>
       </c>
       <c r="P7">
-        <v>0.6102234322578526</v>
+        <v>0.3915901179531478</v>
       </c>
       <c r="Q7">
         <v>138.876152457921</v>
@@ -883,10 +883,10 @@
         <v>1249.885372121289</v>
       </c>
       <c r="S7">
-        <v>0.1154911762148149</v>
+        <v>0.06999073013715608</v>
       </c>
       <c r="T7">
-        <v>0.1154911762148149</v>
+        <v>0.06999073013715607</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J8">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3620046666666667</v>
+        <v>0.5084619999999999</v>
       </c>
       <c r="N8">
-        <v>1.086014</v>
+        <v>1.525386</v>
       </c>
       <c r="O8">
-        <v>0.1087724010917563</v>
+        <v>0.09804058431541925</v>
       </c>
       <c r="P8">
-        <v>0.1087724010917563</v>
+        <v>0.09804058431541923</v>
       </c>
       <c r="Q8">
-        <v>24.754691083134</v>
+        <v>34.76977204026599</v>
       </c>
       <c r="R8">
-        <v>222.792219748206</v>
+        <v>312.9279483623939</v>
       </c>
       <c r="S8">
-        <v>0.02058631622079095</v>
+        <v>0.01752325139147308</v>
       </c>
       <c r="T8">
-        <v>0.02058631622079095</v>
+        <v>0.01752325139147308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="J9">
-        <v>0.1892604742946246</v>
+        <v>0.1787346690539575</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.074889</v>
+        <v>0.05659433333333333</v>
       </c>
       <c r="N9">
-        <v>0.224667</v>
+        <v>0.169783</v>
       </c>
       <c r="O9">
-        <v>0.02250207551291385</v>
+        <v>0.01091240153431645</v>
       </c>
       <c r="P9">
-        <v>0.02250207551291385</v>
+        <v>0.01091240153431645</v>
       </c>
       <c r="Q9">
-        <v>5.121077796027</v>
+        <v>3.870047454423</v>
       </c>
       <c r="R9">
-        <v>46.089700164243</v>
+        <v>34.830427089807</v>
       </c>
       <c r="S9">
-        <v>0.004258753484187533</v>
+        <v>0.001950424476819948</v>
       </c>
       <c r="T9">
-        <v>0.004258753484187533</v>
+        <v>0.001950424476819948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H10">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J10">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8603190000000001</v>
+        <v>2.590303333333333</v>
       </c>
       <c r="N10">
-        <v>2.580957</v>
+        <v>7.770910000000001</v>
       </c>
       <c r="O10">
-        <v>0.2585020911374772</v>
+        <v>0.4994568961971165</v>
       </c>
       <c r="P10">
-        <v>0.2585020911374772</v>
+        <v>0.4994568961971165</v>
       </c>
       <c r="Q10">
-        <v>32.82800078286</v>
+        <v>137.9974620323133</v>
       </c>
       <c r="R10">
-        <v>295.45200704574</v>
+        <v>1241.97715829082</v>
       </c>
       <c r="S10">
-        <v>0.02730018333667568</v>
+        <v>0.06954788819947029</v>
       </c>
       <c r="T10">
-        <v>0.02730018333667568</v>
+        <v>0.06954788819947029</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H11">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J11">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.092641</v>
       </c>
       <c r="O11">
-        <v>0.6102234322578526</v>
+        <v>0.3915901179531479</v>
       </c>
       <c r="P11">
-        <v>0.6102234322578526</v>
+        <v>0.3915901179531478</v>
       </c>
       <c r="Q11">
-        <v>77.49420990651335</v>
+        <v>108.1944064561313</v>
       </c>
       <c r="R11">
-        <v>697.4478891586201</v>
+        <v>973.7496581051819</v>
       </c>
       <c r="S11">
-        <v>0.06444517142460997</v>
+        <v>0.05452775995443377</v>
       </c>
       <c r="T11">
-        <v>0.06444517142460995</v>
+        <v>0.05452775995443376</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H12">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J12">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3620046666666667</v>
+        <v>0.5084619999999999</v>
       </c>
       <c r="N12">
-        <v>1.086014</v>
+        <v>1.525386</v>
       </c>
       <c r="O12">
-        <v>0.1087724010917563</v>
+        <v>0.09804058431541925</v>
       </c>
       <c r="P12">
-        <v>0.1087724010917563</v>
+        <v>0.09804058431541923</v>
       </c>
       <c r="Q12">
-        <v>13.81335235038667</v>
+        <v>27.08812695290799</v>
       </c>
       <c r="R12">
-        <v>124.32017115348</v>
+        <v>243.7931425761719</v>
       </c>
       <c r="S12">
-        <v>0.01148735965232916</v>
+        <v>0.01365185994806749</v>
       </c>
       <c r="T12">
-        <v>0.01148735965232916</v>
+        <v>0.01365185994806749</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.15794</v>
+        <v>53.27463399999999</v>
       </c>
       <c r="H13">
-        <v>114.47382</v>
+        <v>159.823902</v>
       </c>
       <c r="I13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793777</v>
       </c>
       <c r="J13">
-        <v>0.105609139239639</v>
+        <v>0.1392470275793778</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.074889</v>
+        <v>0.05659433333333333</v>
       </c>
       <c r="N13">
-        <v>0.224667</v>
+        <v>0.169783</v>
       </c>
       <c r="O13">
-        <v>0.02250207551291385</v>
+        <v>0.01091240153431645</v>
       </c>
       <c r="P13">
-        <v>0.02250207551291385</v>
+        <v>0.01091240153431645</v>
       </c>
       <c r="Q13">
-        <v>2.85760996866</v>
+        <v>3.015042394807333</v>
       </c>
       <c r="R13">
-        <v>25.71848971794</v>
+        <v>27.13538155326599</v>
       </c>
       <c r="S13">
-        <v>0.002376424826024189</v>
+        <v>0.001519519477406206</v>
       </c>
       <c r="T13">
-        <v>0.002376424826024189</v>
+        <v>0.001519519477406206</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H14">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I14">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J14">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8603190000000001</v>
+        <v>2.590303333333333</v>
       </c>
       <c r="N14">
-        <v>2.580957</v>
+        <v>7.770910000000001</v>
       </c>
       <c r="O14">
-        <v>0.2585020911374772</v>
+        <v>0.4994568961971165</v>
       </c>
       <c r="P14">
-        <v>0.2585020911374772</v>
+        <v>0.4994568961971165</v>
       </c>
       <c r="Q14">
-        <v>90.10744188115503</v>
+        <v>235.7649609857422</v>
       </c>
       <c r="R14">
-        <v>810.9669769303952</v>
+        <v>2121.88464887168</v>
       </c>
       <c r="S14">
-        <v>0.07493449569547828</v>
+        <v>0.1188207008049857</v>
       </c>
       <c r="T14">
-        <v>0.07493449569547828</v>
+        <v>0.1188207008049857</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H15">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I15">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J15">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.092641</v>
       </c>
       <c r="O15">
-        <v>0.6102234322578526</v>
+        <v>0.3915901179531479</v>
       </c>
       <c r="P15">
-        <v>0.6102234322578526</v>
+        <v>0.3915901179531478</v>
       </c>
       <c r="Q15">
-        <v>212.7088110380151</v>
+        <v>184.8472402415076</v>
       </c>
       <c r="R15">
-        <v>1914.379299342135</v>
+        <v>1663.625162173568</v>
       </c>
       <c r="S15">
-        <v>0.176891354946477</v>
+        <v>0.09315921473459209</v>
       </c>
       <c r="T15">
-        <v>0.176891354946477</v>
+        <v>0.09315921473459207</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H16">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I16">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J16">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3620046666666667</v>
+        <v>0.5084619999999999</v>
       </c>
       <c r="N16">
-        <v>1.086014</v>
+        <v>1.525386</v>
       </c>
       <c r="O16">
-        <v>0.1087724010917563</v>
+        <v>0.09804058431541925</v>
       </c>
       <c r="P16">
-        <v>0.1087724010917563</v>
+        <v>0.09804058431541923</v>
       </c>
       <c r="Q16">
-        <v>37.91537146381001</v>
+        <v>46.27933804125865</v>
       </c>
       <c r="R16">
-        <v>341.23834317429</v>
+        <v>416.5140423713279</v>
       </c>
       <c r="S16">
-        <v>0.03153090555488881</v>
+        <v>0.02332383639987001</v>
       </c>
       <c r="T16">
-        <v>0.0315309055548888</v>
+        <v>0.02332383639987001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.737245</v>
+        <v>91.01828266666666</v>
       </c>
       <c r="H17">
-        <v>314.211735</v>
+        <v>273.054848</v>
       </c>
       <c r="I17">
-        <v>0.289879649970129</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="J17">
-        <v>0.2898796499701289</v>
+        <v>0.2378998101932138</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.074889</v>
+        <v>0.05659433333333333</v>
       </c>
       <c r="N17">
-        <v>0.224667</v>
+        <v>0.169783</v>
       </c>
       <c r="O17">
-        <v>0.02250207551291385</v>
+        <v>0.01091240153431645</v>
       </c>
       <c r="P17">
-        <v>0.02250207551291385</v>
+        <v>0.01091240153431645</v>
       </c>
       <c r="Q17">
-        <v>7.843667540805001</v>
+        <v>5.151119028664889</v>
       </c>
       <c r="R17">
-        <v>70.59300786724501</v>
+        <v>46.360071257984</v>
       </c>
       <c r="S17">
-        <v>0.006522893773284876</v>
+        <v>0.002596058253766018</v>
       </c>
       <c r="T17">
-        <v>0.006522893773284876</v>
+        <v>0.002596058253766018</v>
       </c>
     </row>
   </sheetData>
